--- a/artfynd/A 63193-2025 artfynd.xlsx
+++ b/artfynd/A 63193-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130755778</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130755749</v>
+        <v>130755777</v>
       </c>
       <c r="B3" t="n">
-        <v>80344</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -827,30 +827,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -858,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>490012</v>
+        <v>490029</v>
       </c>
       <c r="R3" t="n">
-        <v>7013770</v>
+        <v>7013807</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -896,11 +892,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Växer på en sälghögstubbe.</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -923,22 +914,22 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Bark på dött träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Bark of dead wood # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -956,10 +947,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130755777</v>
+        <v>130755749</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>80348</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -967,26 +958,30 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -994,10 +989,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490029</v>
+        <v>490012</v>
       </c>
       <c r="R4" t="n">
-        <v>7013807</v>
+        <v>7013770</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1032,6 +1027,11 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Växer på en sälghögstubbe.</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1054,22 +1054,22 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på dött träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark of dead wood # Salix caprea</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1090,7 +1090,7 @@
         <v>130755732</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>130755736</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>130755741</v>
       </c>
       <c r="B7" t="n">
-        <v>80345</v>
+        <v>80349</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130755737</v>
+        <v>130755773</v>
       </c>
       <c r="B8" t="n">
-        <v>80345</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1526,10 +1526,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490082</v>
+        <v>490002</v>
       </c>
       <c r="R8" t="n">
-        <v>7013704</v>
+        <v>7013775</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1564,11 +1564,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Växer på en knäckt men levande sälg.</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1584,24 +1579,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130755740</v>
+        <v>130755737</v>
       </c>
       <c r="B9" t="n">
-        <v>80345</v>
+        <v>80349</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1649,11 +1649,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1661,10 +1657,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489930</v>
+        <v>490082</v>
       </c>
       <c r="R9" t="n">
-        <v>7013786</v>
+        <v>7013704</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1701,7 +1697,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Skrovellav på en tvåstammig sälg intill lunglav.</t>
+          <t>Växer på en knäckt men levande sälg.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1754,10 +1750,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130755752</v>
+        <v>130755740</v>
       </c>
       <c r="B10" t="n">
-        <v>80344</v>
+        <v>80349</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1765,21 +1761,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1796,10 +1792,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489917</v>
+        <v>489930</v>
       </c>
       <c r="R10" t="n">
-        <v>7013790</v>
+        <v>7013786</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1836,7 +1832,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På en gammal levande knäckt sälg.</t>
+          <t>Skrovellav på en tvåstammig sälg intill lunglav.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1852,11 +1848,6 @@
       <c r="AH10" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1894,10 +1885,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130755773</v>
+        <v>130755770</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1932,10 +1923,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490002</v>
+        <v>490124</v>
       </c>
       <c r="R11" t="n">
-        <v>7013775</v>
+        <v>7013750</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1968,6 +1959,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran i gles granskog.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2025,10 +2021,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130755770</v>
+        <v>130755752</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>80348</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2036,26 +2032,30 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490124</v>
+        <v>489917</v>
       </c>
       <c r="R12" t="n">
-        <v>7013750</v>
+        <v>7013790</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i gles granskog.</t>
+          <t>På en gammal levande knäckt sälg.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2128,22 +2128,22 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2164,7 +2164,7 @@
         <v>130755759</v>
       </c>
       <c r="B13" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>130755735</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>130755757</v>
       </c>
       <c r="B15" t="n">
-        <v>99346</v>
+        <v>99350</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>130755772</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>130755780</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>130755755</v>
       </c>
       <c r="B18" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>130755760</v>
       </c>
       <c r="B19" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>130755738</v>
       </c>
       <c r="B20" t="n">
-        <v>80345</v>
+        <v>80349</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130755769</v>
+        <v>130755764</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3258,10 +3258,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>490116</v>
+        <v>490087</v>
       </c>
       <c r="R21" t="n">
-        <v>7013743</v>
+        <v>7013655</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Rikligt och långväxta bålar på en gran i gles granskog.</t>
+          <t>På en stående död delvis avbarkad gran med full längd och potentiella födosökspår av tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3316,11 +3316,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ21" t="inlineStr">
         <is>
           <t>gran</t>
@@ -3333,12 +3328,12 @@
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3356,10 +3351,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130755764</v>
+        <v>130755769</v>
       </c>
       <c r="B22" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3394,10 +3389,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>490087</v>
+        <v>490116</v>
       </c>
       <c r="R22" t="n">
-        <v>7013655</v>
+        <v>7013743</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3434,7 +3429,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På en stående död delvis avbarkad gran med full längd och potentiella födosökspår av tretåig hackspett.</t>
+          <t>Rikligt och långväxta bålar på en gran i gles granskog.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3452,6 +3447,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ22" t="inlineStr">
         <is>
           <t>gran</t>
@@ -3464,12 +3464,12 @@
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3490,7 +3490,7 @@
         <v>130755747</v>
       </c>
       <c r="B23" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>130755774</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>130755783</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>130755767</v>
       </c>
       <c r="B26" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>130755731</v>
       </c>
       <c r="B27" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>130755733</v>
       </c>
       <c r="B28" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>130755782</v>
       </c>
       <c r="B29" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>130755765</v>
       </c>
       <c r="B30" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>130755756</v>
       </c>
       <c r="B31" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130755751</v>
+        <v>130755730</v>
       </c>
       <c r="B32" t="n">
-        <v>80344</v>
+        <v>91808</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4713,28 +4713,28 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489907</v>
+        <v>489853</v>
       </c>
       <c r="R32" t="n">
-        <v>7013806</v>
+        <v>7013861</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4782,11 +4782,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Rikligt med lunglav på en lutande levande sälg.</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -4802,29 +4797,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4845,7 +4835,7 @@
         <v>130755768</v>
       </c>
       <c r="B33" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4978,10 +4968,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130755730</v>
+        <v>130755751</v>
       </c>
       <c r="B34" t="n">
-        <v>91804</v>
+        <v>80348</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4989,28 +4979,28 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -5020,10 +5010,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>489853</v>
+        <v>489907</v>
       </c>
       <c r="R34" t="n">
-        <v>7013861</v>
+        <v>7013806</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -5058,6 +5048,11 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Rikligt med lunglav på en lutande levande sälg.</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -5073,24 +5068,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5108,10 +5108,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130755754</v>
+        <v>130755766</v>
       </c>
       <c r="B35" t="n">
-        <v>80344</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5119,30 +5119,26 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -5150,10 +5146,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>489998</v>
+        <v>490089</v>
       </c>
       <c r="R35" t="n">
-        <v>7013738</v>
+        <v>7013701</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5190,7 +5186,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på en gammal sälg.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5208,29 +5204,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5248,10 +5239,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130755766</v>
+        <v>130755754</v>
       </c>
       <c r="B36" t="n">
-        <v>79239</v>
+        <v>80348</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5259,26 +5250,30 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5286,10 +5281,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>490089</v>
+        <v>489998</v>
       </c>
       <c r="R36" t="n">
-        <v>7013701</v>
+        <v>7013738</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5326,7 +5321,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Rikligt med lunglav på en gammal sälg.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5344,24 +5339,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5382,7 +5382,7 @@
         <v>130755779</v>
       </c>
       <c r="B37" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>130755775</v>
       </c>
       <c r="B38" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>130755784</v>
       </c>
       <c r="B39" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130755776</v>
+        <v>130755746</v>
       </c>
       <c r="B40" t="n">
-        <v>79239</v>
+        <v>80348</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5798,21 +5798,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5825,10 +5825,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>489982</v>
+        <v>490083</v>
       </c>
       <c r="R40" t="n">
-        <v>7013779</v>
+        <v>7013704</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5863,6 +5863,11 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Lunglav som växer på en knäckt men levande sälg.</t>
+        </is>
+      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
@@ -5875,32 +5880,27 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5918,10 +5918,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130755746</v>
+        <v>130755748</v>
       </c>
       <c r="B41" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5948,7 +5948,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5956,10 +5960,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>490083</v>
+        <v>490112</v>
       </c>
       <c r="R41" t="n">
-        <v>7013704</v>
+        <v>7013757</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5996,7 +6000,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Lunglav som växer på en knäckt men levande sälg.</t>
+          <t>Rikligt med lunglav på en levande skadad sälg.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -6049,10 +6053,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130755748</v>
+        <v>130755776</v>
       </c>
       <c r="B42" t="n">
-        <v>80344</v>
+        <v>79243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -6060,30 +6064,26 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -6091,10 +6091,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>490112</v>
+        <v>489982</v>
       </c>
       <c r="R42" t="n">
-        <v>7013757</v>
+        <v>7013779</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6129,11 +6129,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Rikligt med lunglav på en levande skadad sälg.</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
@@ -6146,27 +6141,32 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6184,10 +6184,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130755753</v>
+        <v>130755763</v>
       </c>
       <c r="B43" t="n">
-        <v>80344</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -6195,30 +6195,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6226,10 +6222,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>489927</v>
+        <v>490118</v>
       </c>
       <c r="R43" t="n">
-        <v>7013782</v>
+        <v>7013667</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6266,7 +6262,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ymnigt med lunglav på en tvåstammig sälg.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -6284,29 +6280,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI43" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6324,10 +6315,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130755763</v>
+        <v>130755753</v>
       </c>
       <c r="B44" t="n">
-        <v>79239</v>
+        <v>80348</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6335,26 +6326,30 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6362,10 +6357,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>490118</v>
+        <v>489927</v>
       </c>
       <c r="R44" t="n">
-        <v>7013667</v>
+        <v>7013782</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6402,7 +6397,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ymnigt med lunglav på en tvåstammig sälg.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6420,24 +6415,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>

--- a/artfynd/A 63193-2025 artfynd.xlsx
+++ b/artfynd/A 63193-2025 artfynd.xlsx
@@ -1488,10 +1488,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130755773</v>
+        <v>130755737</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1526,10 +1526,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490002</v>
+        <v>490082</v>
       </c>
       <c r="R8" t="n">
-        <v>7013775</v>
+        <v>7013704</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1564,6 +1564,11 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Växer på en knäckt men levande sälg.</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1579,29 +1584,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130755737</v>
+        <v>130755740</v>
       </c>
       <c r="B9" t="n">
         <v>80349</v>
@@ -1649,7 +1649,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1657,10 +1661,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490082</v>
+        <v>489930</v>
       </c>
       <c r="R9" t="n">
-        <v>7013704</v>
+        <v>7013786</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1697,7 +1701,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Växer på en knäckt men levande sälg.</t>
+          <t>Skrovellav på en tvåstammig sälg intill lunglav.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1750,10 +1754,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130755740</v>
+        <v>130755770</v>
       </c>
       <c r="B10" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1761,30 +1765,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489930</v>
+        <v>490124</v>
       </c>
       <c r="R10" t="n">
-        <v>7013786</v>
+        <v>7013750</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Skrovellav på en tvåstammig sälg intill lunglav.</t>
+          <t>Långväxta bålar på gran i gles granskog.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1850,24 +1850,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1885,10 +1890,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130755770</v>
+        <v>130755752</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1896,26 +1901,30 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1923,10 +1932,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>490124</v>
+        <v>489917</v>
       </c>
       <c r="R11" t="n">
-        <v>7013750</v>
+        <v>7013790</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1963,7 +1972,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i gles granskog.</t>
+          <t>På en gammal levande knäckt sälg.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1988,22 +1997,22 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2021,10 +2030,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130755752</v>
+        <v>130755773</v>
       </c>
       <c r="B12" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2032,30 +2041,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2063,10 +2068,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489917</v>
+        <v>490002</v>
       </c>
       <c r="R12" t="n">
-        <v>7013790</v>
+        <v>7013775</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2101,11 +2106,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På en gammal levande knäckt sälg.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2128,22 +2128,22 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130755772</v>
+        <v>130755780</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>490096</v>
+        <v>489926</v>
       </c>
       <c r="R16" t="n">
-        <v>7013750</v>
+        <v>7013704</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2621,11 +2621,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2683,7 +2678,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130755780</v>
+        <v>130755772</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2721,10 +2716,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489926</v>
+        <v>490096</v>
       </c>
       <c r="R17" t="n">
-        <v>7013704</v>
+        <v>7013750</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2757,6 +2752,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2814,10 +2814,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130755755</v>
+        <v>130755760</v>
       </c>
       <c r="B18" t="n">
-        <v>80348</v>
+        <v>91828</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2825,28 +2825,24 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -2856,10 +2852,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>490062</v>
+        <v>489936</v>
       </c>
       <c r="R18" t="n">
-        <v>7013785</v>
+        <v>7013555</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2896,7 +2892,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Rikligt med bålar på en skadad levande sälg.</t>
+          <t>Flera fruktkroppar i en stående död granstam.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2914,24 +2910,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre granskog.</t>
+        </is>
+      </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2949,10 +2950,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130755760</v>
+        <v>130755755</v>
       </c>
       <c r="B19" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2960,24 +2961,28 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2987,10 +2992,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489936</v>
+        <v>490062</v>
       </c>
       <c r="R19" t="n">
-        <v>7013555</v>
+        <v>7013785</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3027,7 +3032,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående död granstam.</t>
+          <t>Rikligt med bålar på en skadad levande sälg.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3045,29 +3050,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre granskog.</t>
-        </is>
-      </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130755738</v>
+        <v>130755769</v>
       </c>
       <c r="B20" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3096,30 +3096,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3127,10 +3123,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489904</v>
+        <v>490116</v>
       </c>
       <c r="R20" t="n">
-        <v>7013810</v>
+        <v>7013743</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3167,7 +3163,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Växer på en levande lutande sälg.</t>
+          <t>Rikligt och långväxta bålar på en gran i gles granskog.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3185,24 +3181,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3351,10 +3352,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130755769</v>
+        <v>130755738</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3362,26 +3363,30 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3389,10 +3394,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>490116</v>
+        <v>489904</v>
       </c>
       <c r="R22" t="n">
-        <v>7013743</v>
+        <v>7013810</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3429,7 +3434,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Rikligt och långväxta bålar på en gran i gles granskog.</t>
+          <t>Växer på en levande lutande sälg.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3447,29 +3452,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130755731</v>
+        <v>130755765</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4036,31 +4036,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -4068,10 +4063,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489987</v>
+        <v>490063</v>
       </c>
       <c r="R27" t="n">
-        <v>7013746</v>
+        <v>7013696</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4108,7 +4103,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ringhack, äldre och ytliga, längs några meter på en granstam.</t>
+          <t>På död gren av tall.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4117,37 +4112,33 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Död gren</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Dead branch  # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4165,10 +4156,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130755733</v>
+        <v>130755756</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4176,29 +4167,28 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -4208,10 +4198,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489978</v>
+        <v>489948</v>
       </c>
       <c r="R28" t="n">
-        <v>7013712</v>
+        <v>7013625</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4248,7 +4238,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga längs några meter upp på en granstam med spår av äldre sav/kådaflöde.</t>
+          <t>Lunglav med uttorkade bålar på en tvåstammig skadad levande sälg vid hyggeskanten.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4257,6 +4247,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -4265,29 +4256,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>Äödre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4436,10 +4422,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130755765</v>
+        <v>130755731</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4447,26 +4433,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4474,10 +4465,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>490063</v>
+        <v>489987</v>
       </c>
       <c r="R30" t="n">
-        <v>7013696</v>
+        <v>7013746</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4514,7 +4505,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>På död gren av tall.</t>
+          <t>Ringhack, äldre och ytliga, längs några meter på en granstam.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4523,33 +4514,37 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>Död gren</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Dead branch  # Pinus sylvestris</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4567,10 +4562,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130755756</v>
+        <v>130755733</v>
       </c>
       <c r="B31" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4578,28 +4573,29 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -4609,10 +4605,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>489948</v>
+        <v>489978</v>
       </c>
       <c r="R31" t="n">
-        <v>7013625</v>
+        <v>7013712</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4649,7 +4645,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Lunglav med uttorkade bålar på en tvåstammig skadad levande sälg vid hyggeskanten.</t>
+          <t>Ringhack, äldre, ytliga längs några meter upp på en granstam med spår av äldre sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4658,7 +4654,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4667,24 +4662,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Äödre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130755746</v>
+        <v>130755748</v>
       </c>
       <c r="B40" t="n">
         <v>80348</v>
@@ -5817,7 +5817,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5825,10 +5829,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>490083</v>
+        <v>490112</v>
       </c>
       <c r="R40" t="n">
-        <v>7013704</v>
+        <v>7013757</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5865,7 +5869,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Lunglav som växer på en knäckt men levande sälg.</t>
+          <t>Rikligt med lunglav på en levande skadad sälg.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5918,7 +5922,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130755748</v>
+        <v>130755746</v>
       </c>
       <c r="B41" t="n">
         <v>80348</v>
@@ -5948,11 +5952,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5960,10 +5960,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>490112</v>
+        <v>490083</v>
       </c>
       <c r="R41" t="n">
-        <v>7013757</v>
+        <v>7013704</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på en levande skadad sälg.</t>
+          <t>Lunglav som växer på en knäckt men levande sälg.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -6184,10 +6184,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130755763</v>
+        <v>130755753</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -6195,26 +6195,30 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6222,10 +6226,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>490118</v>
+        <v>489927</v>
       </c>
       <c r="R43" t="n">
-        <v>7013667</v>
+        <v>7013782</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6262,7 +6266,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ymnigt med lunglav på en tvåstammig sälg.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -6280,24 +6284,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6315,10 +6324,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130755753</v>
+        <v>130755763</v>
       </c>
       <c r="B44" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6326,30 +6335,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6357,10 +6362,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>489927</v>
+        <v>490118</v>
       </c>
       <c r="R44" t="n">
-        <v>7013782</v>
+        <v>7013667</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6397,7 +6402,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ymnigt med lunglav på en tvåstammig sälg.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6415,29 +6420,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI44" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>

--- a/artfynd/A 63193-2025 artfynd.xlsx
+++ b/artfynd/A 63193-2025 artfynd.xlsx
@@ -816,10 +816,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130755777</v>
+        <v>130755732</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -827,26 +827,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -854,10 +859,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>490029</v>
+        <v>489992</v>
       </c>
       <c r="R3" t="n">
-        <v>7013807</v>
+        <v>7013750</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,13 +897,17 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ringhack (savhack), färska, enstaka på ca 1 meters höjd på en gran med bitvis avfläckt bark.</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -907,11 +916,6 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ3" t="inlineStr">
         <is>
           <t>gran</t>
@@ -924,12 +928,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -947,10 +951,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130755749</v>
+        <v>130755736</v>
       </c>
       <c r="B4" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -958,28 +962,29 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -989,10 +994,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490012</v>
+        <v>490036</v>
       </c>
       <c r="R4" t="n">
-        <v>7013770</v>
+        <v>7013472</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1029,7 +1034,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Växer på en sälghögstubbe.</t>
+          <t>Ringhack (savhack), äldre, enstaka ytliga ringhack på en gran i barrblandskog.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1038,38 +1043,32 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Bark på dött träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Bark of dead wood # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1087,10 +1086,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130755732</v>
+        <v>130755749</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1098,29 +1097,28 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1130,10 +1128,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489992</v>
+        <v>490012</v>
       </c>
       <c r="R5" t="n">
-        <v>7013750</v>
+        <v>7013770</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1170,7 +1168,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska, enstaka på ca 1 meters höjd på en gran med bitvis avfläckt bark.</t>
+          <t>Växer på en sälghögstubbe.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1179,6 +1177,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1187,24 +1186,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på dött träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark of dead wood # Salix caprea</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1222,10 +1226,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130755736</v>
+        <v>130755777</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1233,31 +1237,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1265,10 +1264,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490036</v>
+        <v>490029</v>
       </c>
       <c r="R6" t="n">
-        <v>7013472</v>
+        <v>7013807</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1303,23 +1302,24 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Ringhack (savhack), äldre, enstaka ytliga ringhack på en gran i barrblandskog.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130755741</v>
+        <v>130755770</v>
       </c>
       <c r="B7" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1395,10 +1395,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490061</v>
+        <v>490124</v>
       </c>
       <c r="R7" t="n">
-        <v>7013783</v>
+        <v>7013750</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Intill lunglav på en skadad levande sälg i äldre granskog.</t>
+          <t>Långväxta bålar på gran i gles granskog.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1453,24 +1453,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1488,10 +1493,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130755737</v>
+        <v>130755752</v>
       </c>
       <c r="B8" t="n">
-        <v>80349</v>
+        <v>80348</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1499,26 +1504,30 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1526,10 +1535,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490082</v>
+        <v>489917</v>
       </c>
       <c r="R8" t="n">
-        <v>7013704</v>
+        <v>7013790</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1566,7 +1575,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Växer på en knäckt men levande sälg.</t>
+          <t>På en gammal levande knäckt sälg.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1582,6 +1591,11 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1619,10 +1633,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130755740</v>
+        <v>130755773</v>
       </c>
       <c r="B9" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1630,30 +1644,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1661,10 +1671,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489930</v>
+        <v>490002</v>
       </c>
       <c r="R9" t="n">
-        <v>7013786</v>
+        <v>7013775</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1699,11 +1709,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Skrovellav på en tvåstammig sälg intill lunglav.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1719,24 +1724,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1754,10 +1764,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130755770</v>
+        <v>130755741</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1765,21 +1775,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1792,10 +1802,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490124</v>
+        <v>490061</v>
       </c>
       <c r="R10" t="n">
-        <v>7013750</v>
+        <v>7013783</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1832,7 +1842,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i gles granskog.</t>
+          <t>Intill lunglav på en skadad levande sälg i äldre granskog.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1850,29 +1860,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1890,10 +1895,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130755752</v>
+        <v>130755737</v>
       </c>
       <c r="B11" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1901,30 +1906,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1932,10 +1933,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489917</v>
+        <v>490082</v>
       </c>
       <c r="R11" t="n">
-        <v>7013790</v>
+        <v>7013704</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1972,7 +1973,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>På en gammal levande knäckt sälg.</t>
+          <t>Växer på en knäckt men levande sälg.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1988,11 +1989,6 @@
       <c r="AH11" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2030,10 +2026,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130755773</v>
+        <v>130755740</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2041,26 +2037,30 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490002</v>
+        <v>489930</v>
       </c>
       <c r="R12" t="n">
-        <v>7013775</v>
+        <v>7013786</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2106,6 +2106,11 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Skrovellav på en tvåstammig sälg intill lunglav.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2121,29 +2126,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130755759</v>
+        <v>130755735</v>
       </c>
       <c r="B13" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2172,28 +2172,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2203,10 +2204,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489903</v>
+        <v>489931</v>
       </c>
       <c r="R13" t="n">
-        <v>7013683</v>
+        <v>7013444</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2243,7 +2244,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Flertalet slitna gamla fruktkroppar i en stående död gran med full längd i flerskiktad äldre granskog.</t>
+          <t>Ringhack (savhack), äldre, enstaka några meter upp på en gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2252,7 +2253,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2273,12 +2273,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130755735</v>
+        <v>130755759</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2307,29 +2307,28 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -2339,10 +2338,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489931</v>
+        <v>489903</v>
       </c>
       <c r="R14" t="n">
-        <v>7013444</v>
+        <v>7013683</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2379,7 +2378,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), äldre, enstaka några meter upp på en gran.</t>
+          <t>Flertalet slitna gamla fruktkroppar i en stående död gran med full längd i flerskiktad äldre granskog.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2388,6 +2387,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2408,12 +2408,12 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130755769</v>
+        <v>130755738</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3096,26 +3096,30 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3123,10 +3127,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>490116</v>
+        <v>489904</v>
       </c>
       <c r="R20" t="n">
-        <v>7013743</v>
+        <v>7013810</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3163,7 +3167,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Rikligt och långväxta bålar på en gran i gles granskog.</t>
+          <t>Växer på en levande lutande sälg.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3181,29 +3185,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3352,10 +3351,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130755738</v>
+        <v>130755769</v>
       </c>
       <c r="B22" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3363,30 +3362,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3394,10 +3389,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>489904</v>
+        <v>490116</v>
       </c>
       <c r="R22" t="n">
-        <v>7013810</v>
+        <v>7013743</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3434,7 +3429,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Växer på en levande lutande sälg.</t>
+          <t>Rikligt och långväxta bålar på en gran i gles granskog.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3452,24 +3447,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130755765</v>
+        <v>130755782</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490063</v>
+        <v>489925</v>
       </c>
       <c r="R27" t="n">
-        <v>7013696</v>
+        <v>7013633</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4101,11 +4101,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>På död gren av tall.</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -4118,27 +4113,32 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>Död gren</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Dead branch  # Pinus sylvestris</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4156,10 +4156,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130755756</v>
+        <v>130755765</v>
       </c>
       <c r="B28" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4167,30 +4167,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -4198,10 +4194,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489948</v>
+        <v>490063</v>
       </c>
       <c r="R28" t="n">
-        <v>7013625</v>
+        <v>7013696</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4238,7 +4234,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Lunglav med uttorkade bålar på en tvåstammig skadad levande sälg vid hyggeskanten.</t>
+          <t>På död gren av tall.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4253,27 +4249,27 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Död gren</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Dead branch  # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4291,10 +4287,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130755782</v>
+        <v>130755756</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4302,26 +4298,30 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4329,10 +4329,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489925</v>
+        <v>489948</v>
       </c>
       <c r="R29" t="n">
-        <v>7013633</v>
+        <v>7013625</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4367,6 +4367,11 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Lunglav med uttorkade bålar på en tvåstammig skadad levande sälg vid hyggeskanten.</t>
+        </is>
+      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
@@ -4382,29 +4387,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130755730</v>
+        <v>130755751</v>
       </c>
       <c r="B32" t="n">
-        <v>91808</v>
+        <v>80348</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4713,28 +4713,28 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489853</v>
+        <v>489907</v>
       </c>
       <c r="R32" t="n">
-        <v>7013861</v>
+        <v>7013806</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4782,6 +4782,11 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Rikligt med lunglav på en lutande levande sälg.</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -4797,24 +4802,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4968,10 +4978,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130755751</v>
+        <v>130755730</v>
       </c>
       <c r="B34" t="n">
-        <v>80348</v>
+        <v>91808</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4979,28 +4989,28 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -5010,10 +5020,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>489907</v>
+        <v>489853</v>
       </c>
       <c r="R34" t="n">
-        <v>7013806</v>
+        <v>7013861</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -5048,11 +5058,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Rikligt med lunglav på en lutande levande sälg.</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -5068,29 +5073,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5108,10 +5108,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130755766</v>
+        <v>130755754</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5119,26 +5119,30 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -5146,10 +5150,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>490089</v>
+        <v>489998</v>
       </c>
       <c r="R35" t="n">
-        <v>7013701</v>
+        <v>7013738</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5186,7 +5190,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Rikligt med lunglav på en gammal sälg.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5204,24 +5208,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5239,10 +5248,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130755754</v>
+        <v>130755766</v>
       </c>
       <c r="B36" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5250,30 +5259,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5281,10 +5286,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>489998</v>
+        <v>490089</v>
       </c>
       <c r="R36" t="n">
-        <v>7013738</v>
+        <v>7013701</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5321,7 +5326,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på en gammal sälg.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5339,29 +5344,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130755748</v>
+        <v>130755746</v>
       </c>
       <c r="B40" t="n">
         <v>80348</v>
@@ -5817,11 +5817,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5829,10 +5825,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>490112</v>
+        <v>490083</v>
       </c>
       <c r="R40" t="n">
-        <v>7013757</v>
+        <v>7013704</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5869,7 +5865,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på en levande skadad sälg.</t>
+          <t>Lunglav som växer på en knäckt men levande sälg.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5922,7 +5918,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130755746</v>
+        <v>130755748</v>
       </c>
       <c r="B41" t="n">
         <v>80348</v>
@@ -5952,7 +5948,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5960,10 +5960,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>490083</v>
+        <v>490112</v>
       </c>
       <c r="R41" t="n">
-        <v>7013704</v>
+        <v>7013757</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Lunglav som växer på en knäckt men levande sälg.</t>
+          <t>Rikligt med lunglav på en levande skadad sälg.</t>
         </is>
       </c>
       <c r="AD41" t="b">

--- a/artfynd/A 63193-2025 artfynd.xlsx
+++ b/artfynd/A 63193-2025 artfynd.xlsx
@@ -1357,10 +1357,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130755770</v>
+        <v>130755752</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1368,26 +1368,30 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1395,10 +1399,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490124</v>
+        <v>489917</v>
       </c>
       <c r="R7" t="n">
-        <v>7013750</v>
+        <v>7013790</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1435,7 +1439,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i gles granskog.</t>
+          <t>På en gammal levande knäckt sälg.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1460,22 +1464,22 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1493,10 +1497,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130755752</v>
+        <v>130755741</v>
       </c>
       <c r="B8" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1504,30 +1508,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489917</v>
+        <v>490061</v>
       </c>
       <c r="R8" t="n">
-        <v>7013790</v>
+        <v>7013783</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>På en gammal levande knäckt sälg.</t>
+          <t>Intill lunglav på en skadad levande sälg i äldre granskog.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1591,11 +1591,6 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1764,7 +1759,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130755741</v>
+        <v>130755740</v>
       </c>
       <c r="B10" t="n">
         <v>80349</v>
@@ -1794,7 +1789,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1802,10 +1801,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490061</v>
+        <v>489930</v>
       </c>
       <c r="R10" t="n">
-        <v>7013783</v>
+        <v>7013786</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1842,7 +1841,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Intill lunglav på en skadad levande sälg i äldre granskog.</t>
+          <t>Skrovellav på en tvåstammig sälg intill lunglav.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -2026,10 +2025,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130755740</v>
+        <v>130755770</v>
       </c>
       <c r="B12" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2037,30 +2036,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2068,10 +2063,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489930</v>
+        <v>490124</v>
       </c>
       <c r="R12" t="n">
-        <v>7013786</v>
+        <v>7013750</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2108,7 +2103,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Skrovellav på en tvåstammig sälg intill lunglav.</t>
+          <t>Långväxta bålar på gran i gles granskog.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2126,24 +2121,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130755780</v>
+        <v>130755772</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489926</v>
+        <v>490096</v>
       </c>
       <c r="R16" t="n">
-        <v>7013704</v>
+        <v>7013750</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2621,6 +2621,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2678,7 +2683,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130755772</v>
+        <v>130755780</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2716,10 +2721,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>490096</v>
+        <v>489926</v>
       </c>
       <c r="R17" t="n">
-        <v>7013750</v>
+        <v>7013704</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2752,11 +2757,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2814,10 +2814,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130755760</v>
+        <v>130755755</v>
       </c>
       <c r="B18" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2825,24 +2825,28 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -2852,10 +2856,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489936</v>
+        <v>490062</v>
       </c>
       <c r="R18" t="n">
-        <v>7013555</v>
+        <v>7013785</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2892,7 +2896,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående död granstam.</t>
+          <t>Rikligt med bålar på en skadad levande sälg.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2910,29 +2914,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre granskog.</t>
-        </is>
-      </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2950,10 +2949,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130755755</v>
+        <v>130755760</v>
       </c>
       <c r="B19" t="n">
-        <v>80348</v>
+        <v>91828</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2961,28 +2960,24 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2992,10 +2987,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>490062</v>
+        <v>489936</v>
       </c>
       <c r="R19" t="n">
-        <v>7013785</v>
+        <v>7013555</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3032,7 +3027,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Rikligt med bålar på en skadad levande sälg.</t>
+          <t>Flera fruktkroppar i en stående död granstam.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3050,24 +3045,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre granskog.</t>
+        </is>
+      </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130755738</v>
+        <v>130755764</v>
       </c>
       <c r="B20" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3096,30 +3096,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3127,10 +3123,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489904</v>
+        <v>490087</v>
       </c>
       <c r="R20" t="n">
-        <v>7013810</v>
+        <v>7013655</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3167,7 +3163,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Växer på en levande lutande sälg.</t>
+          <t>På en stående död delvis avbarkad gran med full längd och potentiella födosökspår av tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3187,22 +3183,22 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3220,10 +3216,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130755764</v>
+        <v>130755738</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3231,26 +3227,30 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3258,10 +3258,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>490087</v>
+        <v>489904</v>
       </c>
       <c r="R21" t="n">
-        <v>7013655</v>
+        <v>7013810</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>På en stående död delvis avbarkad gran med full längd och potentiella födosökspår av tretåig hackspett.</t>
+          <t>Växer på en levande lutande sälg.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3318,22 +3318,22 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130755782</v>
+        <v>130755731</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4036,26 +4036,31 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -4063,10 +4068,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489925</v>
+        <v>489987</v>
       </c>
       <c r="R27" t="n">
-        <v>7013633</v>
+        <v>7013746</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4101,13 +4106,17 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre och ytliga, längs några meter på en granstam.</t>
+        </is>
+      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -4133,12 +4142,12 @@
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4156,10 +4165,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130755765</v>
+        <v>130755733</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4167,26 +4176,31 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -4194,10 +4208,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>490063</v>
+        <v>489978</v>
       </c>
       <c r="R28" t="n">
-        <v>7013696</v>
+        <v>7013712</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4234,7 +4248,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>På död gren av tall.</t>
+          <t>Ringhack, äldre, ytliga längs några meter upp på en granstam med spår av äldre sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4243,33 +4257,37 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Äödre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>Död gren</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Dead branch  # Pinus sylvestris</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4287,10 +4305,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130755756</v>
+        <v>130755765</v>
       </c>
       <c r="B29" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4298,30 +4316,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4329,10 +4343,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489948</v>
+        <v>490063</v>
       </c>
       <c r="R29" t="n">
-        <v>7013625</v>
+        <v>7013696</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4369,7 +4383,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Lunglav med uttorkade bålar på en tvåstammig skadad levande sälg vid hyggeskanten.</t>
+          <t>På död gren av tall.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4384,27 +4398,27 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Död gren</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Dead branch  # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4422,10 +4436,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130755731</v>
+        <v>130755756</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4433,29 +4447,28 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -4465,10 +4478,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489987</v>
+        <v>489948</v>
       </c>
       <c r="R30" t="n">
-        <v>7013746</v>
+        <v>7013625</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4505,7 +4518,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack, äldre och ytliga, längs några meter på en granstam.</t>
+          <t>Lunglav med uttorkade bålar på en tvåstammig skadad levande sälg vid hyggeskanten.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4514,6 +4527,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4522,29 +4536,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4562,10 +4571,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130755733</v>
+        <v>130755782</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4573,31 +4582,26 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4605,10 +4609,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>489978</v>
+        <v>489925</v>
       </c>
       <c r="R31" t="n">
-        <v>7013712</v>
+        <v>7013633</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4643,17 +4647,13 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, ytliga längs några meter upp på en granstam med spår av äldre sav/kådaflöde.</t>
-        </is>
-      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>Äödre grandominerad skog med inslag av björk, tall och sälg.</t>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
@@ -4679,12 +4679,12 @@
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130755775</v>
+        <v>130755784</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -5553,10 +5553,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>489948</v>
+        <v>489974</v>
       </c>
       <c r="R38" t="n">
-        <v>7013743</v>
+        <v>7013613</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>På gran intill andra hänglavar i äldre granskog.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5651,7 +5651,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130755784</v>
+        <v>130755775</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -5689,10 +5689,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>489974</v>
+        <v>489948</v>
       </c>
       <c r="R39" t="n">
-        <v>7013613</v>
+        <v>7013743</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>På gran intill andra hänglavar i äldre granskog.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD39" t="b">

--- a/artfynd/A 63193-2025 artfynd.xlsx
+++ b/artfynd/A 63193-2025 artfynd.xlsx
@@ -816,10 +816,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130755732</v>
+        <v>130755777</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -827,31 +827,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -859,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489992</v>
+        <v>490029</v>
       </c>
       <c r="R3" t="n">
-        <v>7013750</v>
+        <v>7013807</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -897,17 +892,13 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Ringhack (savhack), färska, enstaka på ca 1 meters höjd på en gran med bitvis avfläckt bark.</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -916,6 +907,11 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ3" t="inlineStr">
         <is>
           <t>gran</t>
@@ -928,12 +924,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -951,10 +947,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130755736</v>
+        <v>130755749</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -962,29 +958,28 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -994,10 +989,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490036</v>
+        <v>490012</v>
       </c>
       <c r="R4" t="n">
-        <v>7013472</v>
+        <v>7013770</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1034,7 +1029,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), äldre, enstaka ytliga ringhack på en gran i barrblandskog.</t>
+          <t>Växer på en sälghögstubbe.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1043,32 +1038,38 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på dött träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark of dead wood # Salix caprea</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1086,10 +1087,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130755749</v>
+        <v>130755732</v>
       </c>
       <c r="B5" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1097,28 +1098,29 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1128,10 +1130,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490012</v>
+        <v>489992</v>
       </c>
       <c r="R5" t="n">
-        <v>7013770</v>
+        <v>7013750</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1168,7 +1170,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Växer på en sälghögstubbe.</t>
+          <t>Ringhack (savhack), färska, enstaka på ca 1 meters höjd på en gran med bitvis avfläckt bark.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1177,7 +1179,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1186,29 +1187,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Bark på dött träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Bark of dead wood # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1226,10 +1222,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130755777</v>
+        <v>130755736</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1237,26 +1233,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1264,10 +1265,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490029</v>
+        <v>490036</v>
       </c>
       <c r="R6" t="n">
-        <v>7013807</v>
+        <v>7013472</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1302,24 +1303,23 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ringhack (savhack), äldre, enstaka ytliga ringhack på en gran i barrblandskog.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130755752</v>
+        <v>130755770</v>
       </c>
       <c r="B7" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1368,30 +1368,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1399,10 +1395,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489917</v>
+        <v>490124</v>
       </c>
       <c r="R7" t="n">
-        <v>7013790</v>
+        <v>7013750</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1439,7 +1435,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>På en gammal levande knäckt sälg.</t>
+          <t>Långväxta bålar på gran i gles granskog.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1464,22 +1460,22 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1497,10 +1493,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130755741</v>
+        <v>130755752</v>
       </c>
       <c r="B8" t="n">
-        <v>80349</v>
+        <v>80348</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1508,26 +1504,30 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>490061</v>
+        <v>489917</v>
       </c>
       <c r="R8" t="n">
-        <v>7013783</v>
+        <v>7013790</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Intill lunglav på en skadad levande sälg i äldre granskog.</t>
+          <t>På en gammal levande knäckt sälg.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1591,6 +1591,11 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1759,7 +1764,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130755740</v>
+        <v>130755741</v>
       </c>
       <c r="B10" t="n">
         <v>80349</v>
@@ -1789,11 +1794,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1801,10 +1802,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489930</v>
+        <v>490061</v>
       </c>
       <c r="R10" t="n">
-        <v>7013786</v>
+        <v>7013783</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1841,7 +1842,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Skrovellav på en tvåstammig sälg intill lunglav.</t>
+          <t>Intill lunglav på en skadad levande sälg i äldre granskog.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -2025,10 +2026,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130755770</v>
+        <v>130755740</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2036,26 +2037,30 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2063,10 +2068,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>490124</v>
+        <v>489930</v>
       </c>
       <c r="R12" t="n">
-        <v>7013750</v>
+        <v>7013786</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2103,7 +2108,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i gles granskog.</t>
+          <t>Skrovellav på en tvåstammig sälg intill lunglav.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2121,29 +2126,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130755735</v>
+        <v>130755759</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2172,29 +2172,28 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2204,10 +2203,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489931</v>
+        <v>489903</v>
       </c>
       <c r="R13" t="n">
-        <v>7013444</v>
+        <v>7013683</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2244,7 +2243,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), äldre, enstaka några meter upp på en gran.</t>
+          <t>Flertalet slitna gamla fruktkroppar i en stående död gran med full längd i flerskiktad äldre granskog.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2253,6 +2252,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2273,12 +2273,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130755759</v>
+        <v>130755735</v>
       </c>
       <c r="B14" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2307,28 +2307,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -2338,10 +2339,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489903</v>
+        <v>489931</v>
       </c>
       <c r="R14" t="n">
-        <v>7013683</v>
+        <v>7013444</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2378,7 +2379,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Flertalet slitna gamla fruktkroppar i en stående död gran med full längd i flerskiktad äldre granskog.</t>
+          <t>Ringhack (savhack), äldre, enstaka några meter upp på en gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2387,7 +2388,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2408,12 +2408,12 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130755772</v>
+        <v>130755780</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>490096</v>
+        <v>489926</v>
       </c>
       <c r="R16" t="n">
-        <v>7013750</v>
+        <v>7013704</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2621,11 +2621,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2683,7 +2678,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130755780</v>
+        <v>130755772</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2721,10 +2716,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489926</v>
+        <v>490096</v>
       </c>
       <c r="R17" t="n">
-        <v>7013704</v>
+        <v>7013750</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2757,6 +2752,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2814,10 +2814,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130755755</v>
+        <v>130755760</v>
       </c>
       <c r="B18" t="n">
-        <v>80348</v>
+        <v>91828</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2825,28 +2825,24 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -2856,10 +2852,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>490062</v>
+        <v>489936</v>
       </c>
       <c r="R18" t="n">
-        <v>7013785</v>
+        <v>7013555</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2896,7 +2892,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Rikligt med bålar på en skadad levande sälg.</t>
+          <t>Flera fruktkroppar i en stående död granstam.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2914,24 +2910,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre granskog.</t>
+        </is>
+      </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2949,10 +2950,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130755760</v>
+        <v>130755755</v>
       </c>
       <c r="B19" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2960,24 +2961,28 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2987,10 +2992,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489936</v>
+        <v>490062</v>
       </c>
       <c r="R19" t="n">
-        <v>7013555</v>
+        <v>7013785</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3027,7 +3032,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående död granstam.</t>
+          <t>Rikligt med bålar på en skadad levande sälg.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3045,29 +3050,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre granskog.</t>
-        </is>
-      </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3216,10 +3216,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130755738</v>
+        <v>130755769</v>
       </c>
       <c r="B21" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3227,30 +3227,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3258,10 +3254,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>489904</v>
+        <v>490116</v>
       </c>
       <c r="R21" t="n">
-        <v>7013810</v>
+        <v>7013743</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3298,7 +3294,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Växer på en levande lutande sälg.</t>
+          <t>Rikligt och långväxta bålar på en gran i gles granskog.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3316,24 +3312,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3351,10 +3352,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130755769</v>
+        <v>130755738</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3362,26 +3363,30 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3389,10 +3394,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>490116</v>
+        <v>489904</v>
       </c>
       <c r="R22" t="n">
-        <v>7013743</v>
+        <v>7013810</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3429,7 +3434,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Rikligt och långväxta bålar på en gran i gles granskog.</t>
+          <t>Växer på en levande lutande sälg.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3447,29 +3452,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130755783</v>
+        <v>130755767</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>489944</v>
+        <v>490125</v>
       </c>
       <c r="R25" t="n">
-        <v>7013630</v>
+        <v>7013689</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Bland andra hänglavar på en stående död delvis avbarkad gran med full längd och potentiella födosökspår av tretåig hackspett.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130755767</v>
+        <v>130755783</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3927,10 +3927,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>490125</v>
+        <v>489944</v>
       </c>
       <c r="R26" t="n">
-        <v>7013689</v>
+        <v>7013630</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Bland andra hänglavar på en stående död delvis avbarkad gran med full längd och potentiella födosökspår av tretåig hackspett.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4002,12 +4002,12 @@
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130755731</v>
+        <v>130755756</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4036,29 +4036,28 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -4068,10 +4067,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489987</v>
+        <v>489948</v>
       </c>
       <c r="R27" t="n">
-        <v>7013746</v>
+        <v>7013625</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4108,7 +4107,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ringhack, äldre och ytliga, längs några meter på en granstam.</t>
+          <t>Lunglav med uttorkade bålar på en tvåstammig skadad levande sälg vid hyggeskanten.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4117,6 +4116,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -4125,29 +4125,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4165,7 +4160,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130755733</v>
+        <v>130755731</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -4208,10 +4203,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489978</v>
+        <v>489987</v>
       </c>
       <c r="R28" t="n">
-        <v>7013712</v>
+        <v>7013746</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4248,7 +4243,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga längs några meter upp på en granstam med spår av äldre sav/kådaflöde.</t>
+          <t>Ringhack, äldre och ytliga, längs några meter på en granstam.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4267,7 +4262,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>Äödre grandominerad skog med inslag av björk, tall och sälg.</t>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -4305,10 +4300,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130755765</v>
+        <v>130755733</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4316,26 +4311,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>490063</v>
+        <v>489978</v>
       </c>
       <c r="R29" t="n">
-        <v>7013696</v>
+        <v>7013712</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>På död gren av tall.</t>
+          <t>Ringhack, äldre, ytliga längs några meter upp på en granstam med spår av äldre sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4392,33 +4392,37 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>Äödre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Död gren</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Dead branch  # Pinus sylvestris</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4436,10 +4440,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130755756</v>
+        <v>130755782</v>
       </c>
       <c r="B30" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4447,30 +4451,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4478,10 +4478,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489948</v>
+        <v>489925</v>
       </c>
       <c r="R30" t="n">
-        <v>7013625</v>
+        <v>7013633</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4516,11 +4516,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Lunglav med uttorkade bålar på en tvåstammig skadad levande sälg vid hyggeskanten.</t>
-        </is>
-      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
@@ -4536,24 +4531,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130755782</v>
+        <v>130755765</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>489925</v>
+        <v>490063</v>
       </c>
       <c r="R31" t="n">
-        <v>7013633</v>
+        <v>7013696</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4647,6 +4647,11 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>På död gren av tall.</t>
+        </is>
+      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
@@ -4659,32 +4664,27 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Död gren</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Dead branch  # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130755751</v>
+        <v>130755768</v>
       </c>
       <c r="B32" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4713,30 +4713,26 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4744,10 +4740,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489907</v>
+        <v>490119</v>
       </c>
       <c r="R32" t="n">
-        <v>7013806</v>
+        <v>7013720</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4784,7 +4780,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på en lutande levande sälg.</t>
+          <t>Långväxta bålar på gran i äldre granskog.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4809,22 +4805,22 @@
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4842,10 +4838,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130755768</v>
+        <v>130755751</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4853,26 +4849,30 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4880,10 +4880,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>490119</v>
+        <v>489907</v>
       </c>
       <c r="R33" t="n">
-        <v>7013720</v>
+        <v>7013806</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i äldre granskog.</t>
+          <t>Rikligt med lunglav på en lutande levande sälg.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4945,22 +4945,22 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130755784</v>
+        <v>130755775</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -5553,10 +5553,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>489974</v>
+        <v>489948</v>
       </c>
       <c r="R38" t="n">
-        <v>7013613</v>
+        <v>7013743</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>På gran intill andra hänglavar i äldre granskog.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5651,7 +5651,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130755775</v>
+        <v>130755784</v>
       </c>
       <c r="B39" t="n">
         <v>79243</v>
@@ -5689,10 +5689,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>489948</v>
+        <v>489974</v>
       </c>
       <c r="R39" t="n">
-        <v>7013743</v>
+        <v>7013613</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>På gran intill andra hänglavar i äldre granskog.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5787,7 +5787,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130755746</v>
+        <v>130755748</v>
       </c>
       <c r="B40" t="n">
         <v>80348</v>
@@ -5817,7 +5817,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5825,10 +5829,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>490083</v>
+        <v>490112</v>
       </c>
       <c r="R40" t="n">
-        <v>7013704</v>
+        <v>7013757</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5865,7 +5869,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Lunglav som växer på en knäckt men levande sälg.</t>
+          <t>Rikligt med lunglav på en levande skadad sälg.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5918,7 +5922,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130755748</v>
+        <v>130755746</v>
       </c>
       <c r="B41" t="n">
         <v>80348</v>
@@ -5948,11 +5952,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -5960,10 +5960,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>490112</v>
+        <v>490083</v>
       </c>
       <c r="R41" t="n">
-        <v>7013757</v>
+        <v>7013704</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på en levande skadad sälg.</t>
+          <t>Lunglav som växer på en knäckt men levande sälg.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -6184,10 +6184,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130755753</v>
+        <v>130755763</v>
       </c>
       <c r="B43" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -6195,30 +6195,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6226,10 +6222,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>489927</v>
+        <v>490118</v>
       </c>
       <c r="R43" t="n">
-        <v>7013782</v>
+        <v>7013667</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6266,7 +6262,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ymnigt med lunglav på en tvåstammig sälg.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -6284,29 +6280,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI43" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6324,10 +6315,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130755763</v>
+        <v>130755753</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6335,26 +6326,30 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6362,10 +6357,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>490118</v>
+        <v>489927</v>
       </c>
       <c r="R44" t="n">
-        <v>7013667</v>
+        <v>7013782</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6402,7 +6397,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ymnigt med lunglav på en tvåstammig sälg.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6420,24 +6415,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>

--- a/artfynd/A 63193-2025 artfynd.xlsx
+++ b/artfynd/A 63193-2025 artfynd.xlsx
@@ -816,10 +816,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130755777</v>
+        <v>130755749</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -827,26 +827,30 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -854,10 +858,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>490029</v>
+        <v>490012</v>
       </c>
       <c r="R3" t="n">
-        <v>7013807</v>
+        <v>7013770</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,6 +896,11 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Växer på en sälghögstubbe.</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -914,22 +923,22 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på dött träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark of dead wood # Salix caprea</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -947,10 +956,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130755749</v>
+        <v>130755777</v>
       </c>
       <c r="B4" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -958,30 +967,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -989,10 +994,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>490012</v>
+        <v>490029</v>
       </c>
       <c r="R4" t="n">
-        <v>7013770</v>
+        <v>7013807</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1027,11 +1032,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Växer på en sälghögstubbe.</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1054,22 +1054,22 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Bark på dött träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Bark of dead wood # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130755770</v>
+        <v>130755752</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1368,26 +1368,30 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1395,10 +1399,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490124</v>
+        <v>489917</v>
       </c>
       <c r="R7" t="n">
-        <v>7013750</v>
+        <v>7013790</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1435,7 +1439,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i gles granskog.</t>
+          <t>På en gammal levande knäckt sälg.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1460,22 +1464,22 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1493,10 +1497,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130755752</v>
+        <v>130755773</v>
       </c>
       <c r="B8" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1504,30 +1508,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489917</v>
+        <v>490002</v>
       </c>
       <c r="R8" t="n">
-        <v>7013790</v>
+        <v>7013775</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1573,11 +1573,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>På en gammal levande knäckt sälg.</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1600,22 +1595,22 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1633,7 +1628,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130755773</v>
+        <v>130755770</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1671,10 +1666,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490002</v>
+        <v>490124</v>
       </c>
       <c r="R9" t="n">
-        <v>7013775</v>
+        <v>7013750</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1707,6 +1702,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran i gles granskog.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -2547,7 +2547,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130755780</v>
+        <v>130755772</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489926</v>
+        <v>490096</v>
       </c>
       <c r="R16" t="n">
-        <v>7013704</v>
+        <v>7013750</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2621,6 +2621,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2678,7 +2683,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130755772</v>
+        <v>130755780</v>
       </c>
       <c r="B17" t="n">
         <v>79243</v>
@@ -2716,10 +2721,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>490096</v>
+        <v>489926</v>
       </c>
       <c r="R17" t="n">
-        <v>7013750</v>
+        <v>7013704</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2752,11 +2757,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2814,10 +2814,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130755760</v>
+        <v>130755755</v>
       </c>
       <c r="B18" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2825,24 +2825,28 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -2852,10 +2856,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489936</v>
+        <v>490062</v>
       </c>
       <c r="R18" t="n">
-        <v>7013555</v>
+        <v>7013785</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2892,7 +2896,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående död granstam.</t>
+          <t>Rikligt med bålar på en skadad levande sälg.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2910,29 +2914,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>Flerskiktad äldre granskog.</t>
-        </is>
-      </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2950,10 +2949,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130755755</v>
+        <v>130755760</v>
       </c>
       <c r="B19" t="n">
-        <v>80348</v>
+        <v>91828</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2961,28 +2960,24 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2992,10 +2987,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>490062</v>
+        <v>489936</v>
       </c>
       <c r="R19" t="n">
-        <v>7013785</v>
+        <v>7013555</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3032,7 +3027,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Rikligt med bålar på en skadad levande sälg.</t>
+          <t>Flera fruktkroppar i en stående död granstam.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -3050,24 +3045,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Flerskiktad äldre granskog.</t>
+        </is>
+      </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130755774</v>
+        <v>130755767</v>
       </c>
       <c r="B24" t="n">
         <v>79243</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>489964</v>
+        <v>490125</v>
       </c>
       <c r="R24" t="n">
-        <v>7013717</v>
+        <v>7013689</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3698,6 +3698,11 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Bland andra hänglavar på en stående död delvis avbarkad gran med full längd och potentiella födosökspår av tretåig hackspett.</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3730,12 +3735,12 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3753,7 +3758,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130755767</v>
+        <v>130755774</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3791,10 +3796,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>490125</v>
+        <v>489964</v>
       </c>
       <c r="R25" t="n">
-        <v>7013689</v>
+        <v>7013717</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3829,11 +3834,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Bland andra hänglavar på en stående död delvis avbarkad gran med full längd och potentiella födosökspår av tretåig hackspett.</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
@@ -3866,12 +3866,12 @@
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130755756</v>
+        <v>130755782</v>
       </c>
       <c r="B27" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4036,30 +4036,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -4067,10 +4063,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489948</v>
+        <v>489925</v>
       </c>
       <c r="R27" t="n">
-        <v>7013625</v>
+        <v>7013633</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4105,11 +4101,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Lunglav med uttorkade bålar på en tvåstammig skadad levande sälg vid hyggeskanten.</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
@@ -4125,24 +4116,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4160,10 +4156,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130755731</v>
+        <v>130755765</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4171,31 +4167,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -4203,10 +4194,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489987</v>
+        <v>490063</v>
       </c>
       <c r="R28" t="n">
-        <v>7013746</v>
+        <v>7013696</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4243,7 +4234,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack, äldre och ytliga, längs några meter på en granstam.</t>
+          <t>På död gren av tall.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4252,37 +4243,33 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Död gren</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Dead branch  # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4300,10 +4287,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130755733</v>
+        <v>130755756</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4311,29 +4298,28 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -4343,10 +4329,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489978</v>
+        <v>489948</v>
       </c>
       <c r="R29" t="n">
-        <v>7013712</v>
+        <v>7013625</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4383,7 +4369,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga längs några meter upp på en granstam med spår av äldre sav/kådaflöde.</t>
+          <t>Lunglav med uttorkade bålar på en tvåstammig skadad levande sälg vid hyggeskanten.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4392,6 +4378,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4400,29 +4387,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>Äödre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4440,10 +4422,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130755782</v>
+        <v>130755731</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4451,26 +4433,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4478,10 +4465,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489925</v>
+        <v>489987</v>
       </c>
       <c r="R30" t="n">
-        <v>7013633</v>
+        <v>7013746</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4516,13 +4503,17 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre och ytliga, längs några meter på en granstam.</t>
+        </is>
+      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4548,12 +4539,12 @@
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4571,10 +4562,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130755765</v>
+        <v>130755733</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4582,26 +4573,31 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4609,10 +4605,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>490063</v>
+        <v>489978</v>
       </c>
       <c r="R31" t="n">
-        <v>7013696</v>
+        <v>7013712</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4649,7 +4645,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På död gren av tall.</t>
+          <t>Ringhack, äldre, ytliga längs några meter upp på en granstam med spår av äldre sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4658,33 +4654,37 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Äödre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>Död gren</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Dead branch  # Pinus sylvestris</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130755768</v>
+        <v>130755751</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4713,26 +4713,30 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4740,10 +4744,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>490119</v>
+        <v>489907</v>
       </c>
       <c r="R32" t="n">
-        <v>7013720</v>
+        <v>7013806</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4780,7 +4784,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i äldre granskog.</t>
+          <t>Rikligt med lunglav på en lutande levande sälg.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4805,22 +4809,22 @@
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4838,10 +4842,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130755751</v>
+        <v>130755768</v>
       </c>
       <c r="B33" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4849,30 +4853,26 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4880,10 +4880,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>489907</v>
+        <v>490119</v>
       </c>
       <c r="R33" t="n">
-        <v>7013806</v>
+        <v>7013720</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på en lutande levande sälg.</t>
+          <t>Långväxta bålar på gran i äldre granskog.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4945,22 +4945,22 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -5108,10 +5108,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130755754</v>
+        <v>130755766</v>
       </c>
       <c r="B35" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5119,30 +5119,26 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -5150,10 +5146,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>489998</v>
+        <v>490089</v>
       </c>
       <c r="R35" t="n">
-        <v>7013738</v>
+        <v>7013701</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -5190,7 +5186,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Rikligt med lunglav på en gammal sälg.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5208,29 +5204,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5248,10 +5239,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130755766</v>
+        <v>130755754</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5259,26 +5250,30 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5286,10 +5281,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>490089</v>
+        <v>489998</v>
       </c>
       <c r="R36" t="n">
-        <v>7013701</v>
+        <v>7013738</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -5326,7 +5321,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Rikligt med lunglav på en gammal sälg.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5344,24 +5339,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130755748</v>
+        <v>130755776</v>
       </c>
       <c r="B40" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5798,30 +5798,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5829,10 +5825,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>490112</v>
+        <v>489982</v>
       </c>
       <c r="R40" t="n">
-        <v>7013757</v>
+        <v>7013779</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5867,11 +5863,6 @@
           <t>2026-01-15</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Rikligt med lunglav på en levande skadad sälg.</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
@@ -5884,27 +5875,32 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -6053,10 +6049,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130755776</v>
+        <v>130755748</v>
       </c>
       <c r="B42" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -6064,26 +6060,30 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -6091,10 +6091,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>489982</v>
+        <v>490112</v>
       </c>
       <c r="R42" t="n">
-        <v>7013779</v>
+        <v>7013757</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -6129,6 +6129,11 @@
           <t>2026-01-15</t>
         </is>
       </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Rikligt med lunglav på en levande skadad sälg.</t>
+        </is>
+      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
@@ -6141,32 +6146,27 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI42" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6184,10 +6184,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130755763</v>
+        <v>130755753</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -6195,26 +6195,30 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6222,10 +6226,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>490118</v>
+        <v>489927</v>
       </c>
       <c r="R43" t="n">
-        <v>7013667</v>
+        <v>7013782</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -6262,7 +6266,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ymnigt med lunglav på en tvåstammig sälg.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -6280,24 +6284,29 @@
           <t>Granskog</t>
         </is>
       </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
+        </is>
+      </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6315,10 +6324,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130755753</v>
+        <v>130755763</v>
       </c>
       <c r="B44" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -6326,30 +6335,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6357,10 +6362,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>489927</v>
+        <v>490118</v>
       </c>
       <c r="R44" t="n">
-        <v>7013782</v>
+        <v>7013667</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6397,7 +6402,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ymnigt med lunglav på en tvåstammig sälg.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6415,29 +6420,24 @@
           <t>Granskog</t>
         </is>
       </c>
-      <c r="AI44" t="inlineStr">
-        <is>
-          <t>Äldre grandominerad skog med inslag av björk, tall och sälg.</t>
-        </is>
-      </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
